--- a/_Drive/Publicacoes/mariajose.xlsx
+++ b/_Drive/Publicacoes/mariajose.xlsx
@@ -8,175 +8,524 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgKuSc+blHulaG/GhfUnY3H//Gj9A=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="5M7QrqF4yniS8gKMAHjmdoBSTjyMNqyl+UPtGdmtnXY="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>DOI</t>
   </si>
   <si>
-    <t>10.1016/j.scriptamat.2004.07.026</t>
-  </si>
-  <si>
-    <t>10.1016/j.msea.2017.07.010</t>
-  </si>
-  <si>
-    <t>10.1088/0953-2048/18/1/006</t>
-  </si>
-  <si>
-    <t>10.1016/j.jmmm.2018.10.034</t>
-  </si>
-  <si>
-    <t>10.1016/j.phpro.2012.06.122</t>
-  </si>
-  <si>
-    <t>10.1016/j.msea.2015.10.110</t>
-  </si>
-  <si>
-    <t>10.1016/j.msea.2019.04.014</t>
-  </si>
-  <si>
-    <t>10.1016/S0921-4534(99)00541-9</t>
-  </si>
-  <si>
-    <t>10.1016/j.physc.2004.03.106</t>
-  </si>
-  <si>
-    <t>10.1016/j.msea.2010.10.051</t>
-  </si>
-  <si>
-    <t>10.1016/j.jnucmat.2015.03.020</t>
-  </si>
-  <si>
-    <t>10.1007/s11661-014-2401-3</t>
-  </si>
-  <si>
-    <t>10.1007/s10948-010-0810-0</t>
-  </si>
-  <si>
-    <t>10.1016/j.jmmm.2016.06.027</t>
-  </si>
-  <si>
-    <t>10.1088/0953-2048/26/5/055008</t>
-  </si>
-  <si>
-    <t>10.1088/0953-2048/18/9/001</t>
-  </si>
-  <si>
-    <t>10.1016/j.addma.2019.100979</t>
-  </si>
-  <si>
-    <t>10.1063/1.345714</t>
-  </si>
-  <si>
-    <t>10.1088/0953-2048/20/3/028</t>
-  </si>
-  <si>
-    <t>10.1016/S0921-4534(01)00092-2</t>
-  </si>
-  <si>
-    <t>10.1016/j.msea.2019.03.116</t>
-  </si>
-  <si>
-    <t>10.1590/1980-5373-mr-2016-1107</t>
-  </si>
-  <si>
-    <t>10.1016/j.physc.2007.04.091</t>
-  </si>
-  <si>
-    <t>10.1109/TASC.2005.864287</t>
-  </si>
-  <si>
-    <t>10.1109/TASC.2002.1018615</t>
-  </si>
-  <si>
-    <t>10.1109/TASC.2008.920575</t>
-  </si>
-  <si>
-    <t>10.1016/j.jnucmat.2012.12.017</t>
-  </si>
-  <si>
-    <t>10.1088/0953-2048/19/12/002</t>
-  </si>
-  <si>
-    <t>10.1016/j.matchar.2016.03.023</t>
-  </si>
-  <si>
-    <t>10.1016/j.jnucmat.2016.12.025</t>
-  </si>
-  <si>
-    <t>10.1088/0953-8984/19/44/446204</t>
-  </si>
-  <si>
-    <t>10.1016/j.actamat.2020.07.038</t>
-  </si>
-  <si>
-    <t>10.1016/j.physc.2006.04.019</t>
-  </si>
-  <si>
-    <t>10.1016/S0921-4534(97)01614-6</t>
-  </si>
-  <si>
-    <t>10.1103/PhysRevB.74.184526</t>
-  </si>
-  <si>
-    <t>10.1088/0953-2048/19/10/013</t>
-  </si>
-  <si>
-    <t>10.1590/S0103-97332007000700015</t>
-  </si>
-  <si>
-    <t>10.1109/TASC.2004.83067</t>
-  </si>
-  <si>
-    <t>10.1016/j.scriptamat.2009.10.002</t>
-  </si>
-  <si>
-    <t>10.1051/epjconf/20147504012</t>
-  </si>
-  <si>
-    <t>10.1088/0953-2048/16/3/301</t>
-  </si>
-  <si>
-    <t>10.1016/j.physc.2004.02.082</t>
-  </si>
-  <si>
-    <t>10.4028/www.scientific.net/MSF.638-642.1995</t>
-  </si>
-  <si>
-    <t>10.1524/zksu.2009.0017</t>
-  </si>
-  <si>
-    <t>10.1016/j.fusengdes.2017.11.003</t>
-  </si>
-  <si>
-    <t>10.1590/S0103-97332007000700014</t>
-  </si>
-  <si>
-    <t>10.1016/j.actamat.2018.12.046</t>
-  </si>
-  <si>
-    <t>10.1016/j.jmmm.2020.167370</t>
-  </si>
-  <si>
-    <t>10.1016/j.jmmm.2021.168336</t>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s10853-024-09418-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s10948-010-0810-0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1007/s11661-014-2401-3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/S0921-4534(01)00092-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/S0921-4534(97)01614-6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/S0921-4534(99)00541-9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.actamat.2018.12.046</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.actamat.2020.07.038</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.actamat.2024.119956</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.addma.2019.100979</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.fusengdes.2017.11.003</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jmmm.2016.06.027</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jmmm.2018.10.034</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jmmm.2021.168336</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jmmm2020.167370</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jnucmat.2012.12.017</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jnucmat.2015.03.020</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.jnucmat.2016.12.025</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.matchar.2016.03.023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.matchar.2022.112509</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.matchar.2024.113857</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.matchar.2025.114789</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msea.2010.10.051</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msea.2015.10.110</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msea.2017.07.010</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msea.2019.03.116</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.msea.2019.04.014</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.phpro.2012.06.122</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.physc.2004.02.082</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.physc.2004.03.106</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.physc.2006.04.019</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.physc.2007.04.091</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.scriptamat.2004.07.026</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1016/j.scriptamat.2009.10.002</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1051/epjconf/20147504012</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1063/1.345714</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1088/0953-2048/16/3/301</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1088/0953-2048/18/1/006</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1088/0953-2048/18/9/001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1088/0953-2048/19/10/013</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1088/0953-2048/19/12/002</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1088/0953-2048/20/3/028</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1088/0953-2048/26/5/055008</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1088/0953-8984/19/44/446204</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1103/PhysRevB.74.184526</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1109/TASC.2002.1018615</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1109/TASC.2004.83067</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1109/TASC.2005.864287</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1109/TASC.2008.920575</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1524/zksu.2009.0017</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/1980-5373-MR-2024-0276</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/1980-5373-mr-2016-1107</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/S0103-97332007000700014</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.1590/S0103-97332007000700015</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10.4028/www.scientific.net/MSF.638-642.1995</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
-      <name val="Sans"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -185,13 +534,8 @@
       <name val="Sans"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font/>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -208,18 +552,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -684,21 +1024,45 @@
       </c>
     </row>
     <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" ht="12.75" customHeight="1"/>
-    <row r="52" ht="12.75" customHeight="1"/>
-    <row r="53" ht="12.75" customHeight="1"/>
-    <row r="54" ht="12.75" customHeight="1"/>
-    <row r="55" ht="12.75" customHeight="1"/>
-    <row r="56" ht="12.75" customHeight="1"/>
+    <row r="51" ht="12.75" customHeight="1">
+      <c r="A51" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" ht="12.75" customHeight="1">
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" ht="12.75" customHeight="1">
+      <c r="A53" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" ht="12.75" customHeight="1">
+      <c r="A54" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" ht="12.75" customHeight="1">
+      <c r="A55" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" ht="12.75" customHeight="1">
+      <c r="A56" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="57" ht="12.75" customHeight="1"/>
     <row r="58" ht="12.75" customHeight="1"/>
     <row r="59" ht="12.75" customHeight="1"/>
@@ -1643,6 +2007,63 @@
     <row r="998" ht="12.75" customHeight="1"/>
     <row r="999" ht="12.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="A3"/>
+    <hyperlink r:id="rId3" ref="A4"/>
+    <hyperlink r:id="rId4" ref="A5"/>
+    <hyperlink r:id="rId5" ref="A6"/>
+    <hyperlink r:id="rId6" ref="A7"/>
+    <hyperlink r:id="rId7" ref="A8"/>
+    <hyperlink r:id="rId8" ref="A9"/>
+    <hyperlink r:id="rId9" ref="A10"/>
+    <hyperlink r:id="rId10" ref="A11"/>
+    <hyperlink r:id="rId11" ref="A12"/>
+    <hyperlink r:id="rId12" ref="A13"/>
+    <hyperlink r:id="rId13" ref="A14"/>
+    <hyperlink r:id="rId14" ref="A15"/>
+    <hyperlink r:id="rId15" ref="A16"/>
+    <hyperlink r:id="rId16" ref="A17"/>
+    <hyperlink r:id="rId17" ref="A18"/>
+    <hyperlink r:id="rId18" ref="A19"/>
+    <hyperlink r:id="rId19" ref="A20"/>
+    <hyperlink r:id="rId20" ref="A21"/>
+    <hyperlink r:id="rId21" ref="A22"/>
+    <hyperlink r:id="rId22" ref="A23"/>
+    <hyperlink r:id="rId23" ref="A24"/>
+    <hyperlink r:id="rId24" ref="A25"/>
+    <hyperlink r:id="rId25" ref="A26"/>
+    <hyperlink r:id="rId26" ref="A27"/>
+    <hyperlink r:id="rId27" ref="A28"/>
+    <hyperlink r:id="rId28" ref="A29"/>
+    <hyperlink r:id="rId29" ref="A30"/>
+    <hyperlink r:id="rId30" ref="A31"/>
+    <hyperlink r:id="rId31" ref="A32"/>
+    <hyperlink r:id="rId32" ref="A33"/>
+    <hyperlink r:id="rId33" ref="A34"/>
+    <hyperlink r:id="rId34" ref="A35"/>
+    <hyperlink r:id="rId35" ref="A36"/>
+    <hyperlink r:id="rId36" ref="A37"/>
+    <hyperlink r:id="rId37" ref="A38"/>
+    <hyperlink r:id="rId38" ref="A39"/>
+    <hyperlink r:id="rId39" ref="A40"/>
+    <hyperlink r:id="rId40" ref="A41"/>
+    <hyperlink r:id="rId41" ref="A42"/>
+    <hyperlink r:id="rId42" ref="A43"/>
+    <hyperlink r:id="rId43" ref="A44"/>
+    <hyperlink r:id="rId44" ref="A45"/>
+    <hyperlink r:id="rId45" ref="A46"/>
+    <hyperlink r:id="rId46" ref="A47"/>
+    <hyperlink r:id="rId47" ref="A48"/>
+    <hyperlink r:id="rId48" ref="A49"/>
+    <hyperlink r:id="rId49" ref="A50"/>
+    <hyperlink r:id="rId50" ref="A51"/>
+    <hyperlink r:id="rId51" ref="A52"/>
+    <hyperlink r:id="rId52" ref="A53"/>
+    <hyperlink r:id="rId53" ref="A54"/>
+    <hyperlink r:id="rId54" ref="A55"/>
+    <hyperlink r:id="rId55" ref="A56"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.6666666666666667" footer="0.0" header="0.0" left="1.0" right="1.0" top="1.6666666666666667"/>
   <pageSetup paperSize="9" cellComments="atEnd" orientation="portrait"/>
@@ -1650,6 +2071,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId56"/>
 </worksheet>
 </file>